--- a/Excel_Files/Dynamic_Range/2_cm/814_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2_cm/814_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>155.268</v>
+        <v>21.32</v>
       </c>
       <c r="D2">
-        <v>134.301</v>
+        <v>16.645</v>
       </c>
       <c r="E2">
-        <v>310.439</v>
+        <v>35.883</v>
       </c>
       <c r="F2">
-        <v>447.951</v>
+        <v>42.624</v>
       </c>
       <c r="G2">
-        <v>209.25</v>
+        <v>30.205</v>
       </c>
       <c r="H2">
-        <v>575.986</v>
+        <v>48.173</v>
       </c>
       <c r="I2">
-        <v>249.169</v>
+        <v>28.975</v>
       </c>
       <c r="J2">
-        <v>646.187</v>
+        <v>48.683</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>39.399</v>
+        <v>9.922000000000001</v>
       </c>
       <c r="D3">
-        <v>56.804</v>
+        <v>10.795</v>
       </c>
       <c r="E3">
-        <v>59.04</v>
+        <v>12.031</v>
       </c>
       <c r="F3">
-        <v>74.825</v>
+        <v>15.279</v>
       </c>
       <c r="G3">
-        <v>77.479</v>
+        <v>15.797</v>
       </c>
       <c r="H3">
-        <v>86.167</v>
+        <v>15.968</v>
       </c>
       <c r="I3">
-        <v>70.28700000000001</v>
+        <v>14.185</v>
       </c>
       <c r="J3">
-        <v>72.44499999999999</v>
+        <v>15.947</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>14.212</v>
+        <v>5.598</v>
       </c>
       <c r="D4">
-        <v>19.181</v>
+        <v>5.99</v>
       </c>
       <c r="E4">
-        <v>21.119</v>
+        <v>6.579</v>
       </c>
       <c r="F4">
-        <v>16.684</v>
+        <v>6.184</v>
       </c>
       <c r="G4">
-        <v>19.252</v>
+        <v>6.861</v>
       </c>
       <c r="H4">
-        <v>24.648</v>
+        <v>7.61</v>
       </c>
       <c r="I4">
-        <v>27.117</v>
+        <v>8.269</v>
       </c>
       <c r="J4">
-        <v>12.847</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
